--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>2.467213543438889</v>
+        <v>3.727294737655555</v>
       </c>
       <c r="R2">
-        <v>22.20492189095</v>
+        <v>33.54565263889999</v>
       </c>
       <c r="S2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="T2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
-        <v>3.201237608800001</v>
+        <v>3.201237608799999</v>
       </c>
       <c r="R3">
         <v>28.8111384792</v>
       </c>
       <c r="S3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="T3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>2.509694279538889</v>
+        <v>2.685365568605555</v>
       </c>
       <c r="R4">
-        <v>22.58724851585</v>
+        <v>24.16829011745</v>
       </c>
       <c r="S4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="T4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>1.294004635483333</v>
+        <v>1.239198570972222</v>
       </c>
       <c r="R5">
-        <v>11.64604171935</v>
+        <v>11.15278713875</v>
       </c>
       <c r="S5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="T5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
     </row>
   </sheetData>
